--- a/machine-learning/analises/formula_neural_network_perceptron.xlsx
+++ b/machine-learning/analises/formula_neural_network_perceptron.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\estudo-machine-learning\estudo-python\machine-learning\analises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9FEA47-CE93-4F9A-B625-AD4997D3C306}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAF3EF3-C9A9-453E-A114-CB0879875565}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{DDD0F2B3-C02C-4CAD-B86B-257F422108DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{DDD0F2B3-C02C-4CAD-B86B-257F422108DD}"/>
   </bookViews>
   <sheets>
     <sheet name="perceptron_neural_network" sheetId="1" r:id="rId1"/>
     <sheet name="multilayer_neural_network" sheetId="2" r:id="rId2"/>
     <sheet name="gradient_descent" sheetId="3" r:id="rId3"/>
+    <sheet name="error" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="85">
   <si>
     <t>Base</t>
   </si>
@@ -282,16 +283,44 @@
   <si>
     <t>Fórmula: Derivada ativação * peso * delta saída</t>
   </si>
+  <si>
+    <t>MSE</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>MSE = Mean Square Error</t>
+  </si>
+  <si>
+    <t>(0 - 0.406)²</t>
+  </si>
+  <si>
+    <t>(0 - 0.432)²</t>
+  </si>
+  <si>
+    <t>(0 - 0.437)²</t>
+  </si>
+  <si>
+    <t>(0 - 0.458)²</t>
+  </si>
+  <si>
+    <t>Fórmula do erro MSE e RMSE</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,6 +390,12 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -767,11 +802,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -779,9 +811,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -811,55 +840,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -879,12 +863,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -893,9 +871,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -904,37 +879,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -947,17 +895,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -973,61 +912,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1039,9 +924,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1072,29 +954,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1109,6 +970,54 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1124,14 +1033,171 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3175,6 +3241,1191 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2790824" cy="840230"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="CaixaDeTexto 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC2F09F9-1D72-4504-8EFF-61C02BDE814B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="114300" y="695325"/>
+              <a:ext cx="2790824" cy="840230"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="pt-BR" sz="2000" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑀𝑆𝐸</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-BR" sz="2000" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-BR" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="pt-BR" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="pt-BR" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑁</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:nary>
+                      <m:naryPr>
+                        <m:chr m:val="∑"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-BR" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub>
+                        <m:r>
+                          <m:rPr>
+                            <m:brk m:alnAt="23"/>
+                          </m:rPr>
+                          <a:rPr lang="pt-BR" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="pt-BR" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>=1</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="pt-BR" sz="2000" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑛</m:t>
+                        </m:r>
+                      </m:sup>
+                      <m:e>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="pt-BR" sz="2000" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:d>
+                              <m:dPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="pt-BR" sz="2000" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:dPr>
+                              <m:e>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="pt-BR" sz="2000" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="pt-BR" sz="2000" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝑓</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="pt-BR" sz="2000" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝑖</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
+                                <m:r>
+                                  <a:rPr lang="pt-BR" sz="2000" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>−</m:t>
+                                </m:r>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="pt-BR" sz="2000" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="pt-BR" sz="2000" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝑦</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="pt-BR" sz="2000" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝑖</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
+                              </m:e>
+                            </m:d>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="pt-BR" sz="2000" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                        <m:r>
+                          <a:rPr lang="pt-BR" sz="2000" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t> </m:t>
+                        </m:r>
+                      </m:e>
+                    </m:nary>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="pt-BR" sz="2000" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="CaixaDeTexto 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC2F09F9-1D72-4504-8EFF-61C02BDE814B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="114300" y="695325"/>
+              <a:ext cx="2790824" cy="840230"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑀𝑆𝐸=1/𝑁 ∑24_(𝑖=1)^𝑛▒〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="2000" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(𝑓_𝑖−𝑦_𝑖 )^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="2000" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗</a:t>
+              </a:r>
+              <a:endParaRPr lang="pt-BR" sz="2000" i="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>64451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>154430</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="14" name="Agrupar 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED7DFD37-073A-4E98-937F-4AE3DD40BBB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3171825" y="635951"/>
+          <a:ext cx="3295650" cy="1042479"/>
+          <a:chOff x="3181350" y="483551"/>
+          <a:chExt cx="3295650" cy="1042479"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="5" name="CaixaDeTexto 4">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FCCF013-FEE3-41D1-A2A3-F162E68E6DD3}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="3181350" y="495300"/>
+                <a:ext cx="3295650" cy="1030730"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+                <a:noAutofit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a14:m>
+                  <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:oMathParaPr>
+                      <m:jc m:val="centerGroup"/>
+                    </m:oMathParaPr>
+                    <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                      <m:r>
+                        <a:rPr lang="pt-BR" sz="2000" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑅𝑀</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pt-BR" sz="2000" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑆𝐸</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pt-BR" sz="2000" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>=     </m:t>
+                      </m:r>
+                      <m:f>
+                        <m:fPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="pt-BR" sz="2000" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:fPr>
+                        <m:num>
+                          <m:r>
+                            <a:rPr lang="pt-BR" sz="2000" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>1</m:t>
+                          </m:r>
+                        </m:num>
+                        <m:den>
+                          <m:r>
+                            <a:rPr lang="pt-BR" sz="2000" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑁</m:t>
+                          </m:r>
+                        </m:den>
+                      </m:f>
+                      <m:nary>
+                        <m:naryPr>
+                          <m:chr m:val="∑"/>
+                          <m:ctrlPr>
+                            <a:rPr lang="pt-BR" sz="2000" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:naryPr>
+                        <m:sub>
+                          <m:r>
+                            <m:rPr>
+                              <m:brk m:alnAt="23"/>
+                            </m:rPr>
+                            <a:rPr lang="pt-BR" sz="2000" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑖</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pt-BR" sz="2000" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>=1</m:t>
+                          </m:r>
+                        </m:sub>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="pt-BR" sz="2000" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑛</m:t>
+                          </m:r>
+                        </m:sup>
+                        <m:e>
+                          <m:sSup>
+                            <m:sSupPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="pt-BR" sz="2000" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:sSupPr>
+                            <m:e>
+                              <m:d>
+                                <m:dPr>
+                                  <m:ctrlPr>
+                                    <a:rPr lang="pt-BR" sz="2000" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                  </m:ctrlPr>
+                                </m:dPr>
+                                <m:e>
+                                  <m:sSub>
+                                    <m:sSubPr>
+                                      <m:ctrlPr>
+                                        <a:rPr lang="pt-BR" sz="2000" i="1">
+                                          <a:solidFill>
+                                            <a:schemeClr val="tx1"/>
+                                          </a:solidFill>
+                                          <a:effectLst/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:cs typeface="+mn-cs"/>
+                                        </a:rPr>
+                                      </m:ctrlPr>
+                                    </m:sSubPr>
+                                    <m:e>
+                                      <m:r>
+                                        <a:rPr lang="pt-BR" sz="2000" i="1">
+                                          <a:solidFill>
+                                            <a:schemeClr val="tx1"/>
+                                          </a:solidFill>
+                                          <a:effectLst/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:cs typeface="+mn-cs"/>
+                                        </a:rPr>
+                                        <m:t>𝑓</m:t>
+                                      </m:r>
+                                    </m:e>
+                                    <m:sub>
+                                      <m:r>
+                                        <a:rPr lang="pt-BR" sz="2000" i="1">
+                                          <a:solidFill>
+                                            <a:schemeClr val="tx1"/>
+                                          </a:solidFill>
+                                          <a:effectLst/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:cs typeface="+mn-cs"/>
+                                        </a:rPr>
+                                        <m:t>𝑖</m:t>
+                                      </m:r>
+                                    </m:sub>
+                                  </m:sSub>
+                                  <m:r>
+                                    <a:rPr lang="pt-BR" sz="2000" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                    <m:t>−</m:t>
+                                  </m:r>
+                                  <m:sSub>
+                                    <m:sSubPr>
+                                      <m:ctrlPr>
+                                        <a:rPr lang="pt-BR" sz="2000" i="1">
+                                          <a:solidFill>
+                                            <a:schemeClr val="tx1"/>
+                                          </a:solidFill>
+                                          <a:effectLst/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:cs typeface="+mn-cs"/>
+                                        </a:rPr>
+                                      </m:ctrlPr>
+                                    </m:sSubPr>
+                                    <m:e>
+                                      <m:r>
+                                        <a:rPr lang="pt-BR" sz="2000" i="1">
+                                          <a:solidFill>
+                                            <a:schemeClr val="tx1"/>
+                                          </a:solidFill>
+                                          <a:effectLst/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:cs typeface="+mn-cs"/>
+                                        </a:rPr>
+                                        <m:t>𝑦</m:t>
+                                      </m:r>
+                                    </m:e>
+                                    <m:sub>
+                                      <m:r>
+                                        <a:rPr lang="pt-BR" sz="2000" i="1">
+                                          <a:solidFill>
+                                            <a:schemeClr val="tx1"/>
+                                          </a:solidFill>
+                                          <a:effectLst/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:cs typeface="+mn-cs"/>
+                                        </a:rPr>
+                                        <m:t>𝑖</m:t>
+                                      </m:r>
+                                    </m:sub>
+                                  </m:sSub>
+                                </m:e>
+                              </m:d>
+                            </m:e>
+                            <m:sup>
+                              <m:r>
+                                <a:rPr lang="pt-BR" sz="2000" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>2</m:t>
+                              </m:r>
+                            </m:sup>
+                          </m:sSup>
+                          <m:r>
+                            <a:rPr lang="pt-BR" sz="2000" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                        </m:e>
+                      </m:nary>
+                    </m:oMath>
+                  </m:oMathPara>
+                </a14:m>
+                <a:endParaRPr lang="pt-BR" sz="2000" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </mc:Choice>
+        <mc:Fallback>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="5" name="CaixaDeTexto 4">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FCCF013-FEE3-41D1-A2A3-F162E68E6DD3}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="3181350" y="495300"/>
+                <a:ext cx="3295650" cy="1030730"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+                <a:noAutofit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="2000" b="0" i="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>𝑅𝑀</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="2000" i="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>𝑆𝐸=</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="2000" b="0" i="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>     </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="2000" i="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t> 1/𝑁 ∑24_(𝑖=1)^𝑛▒〖</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="2000" i="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>(𝑓_𝑖−𝑦_𝑖 )^</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="2000" b="0" i="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>2 </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="2000" b="0" i="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="2000" b="0" i="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>〗</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-BR" sz="2000" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="Forma Livre: Forma 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EC3968B-8E80-493D-8AD1-0A85F6E8A165}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4295776" y="483551"/>
+            <a:ext cx="1971675" cy="773828"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 1990725"/>
+              <a:gd name="connsiteY0" fmla="*/ 553814 h 822134"/>
+              <a:gd name="connsiteX1" fmla="*/ 104775 w 1990725"/>
+              <a:gd name="connsiteY1" fmla="*/ 801464 h 822134"/>
+              <a:gd name="connsiteX2" fmla="*/ 228600 w 1990725"/>
+              <a:gd name="connsiteY2" fmla="*/ 77564 h 822134"/>
+              <a:gd name="connsiteX3" fmla="*/ 1990725 w 1990725"/>
+              <a:gd name="connsiteY3" fmla="*/ 20414 h 822134"/>
+              <a:gd name="connsiteX4" fmla="*/ 1990725 w 1990725"/>
+              <a:gd name="connsiteY4" fmla="*/ 20414 h 822134"/>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 1990725"/>
+              <a:gd name="connsiteY0" fmla="*/ 556672 h 825569"/>
+              <a:gd name="connsiteX1" fmla="*/ 104775 w 1990725"/>
+              <a:gd name="connsiteY1" fmla="*/ 804322 h 825569"/>
+              <a:gd name="connsiteX2" fmla="*/ 344565 w 1990725"/>
+              <a:gd name="connsiteY2" fmla="*/ 70897 h 825569"/>
+              <a:gd name="connsiteX3" fmla="*/ 1990725 w 1990725"/>
+              <a:gd name="connsiteY3" fmla="*/ 23272 h 825569"/>
+              <a:gd name="connsiteX4" fmla="*/ 1990725 w 1990725"/>
+              <a:gd name="connsiteY4" fmla="*/ 23272 h 825569"/>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 1990725"/>
+              <a:gd name="connsiteY0" fmla="*/ 554674 h 797762"/>
+              <a:gd name="connsiteX1" fmla="*/ 85448 w 1990725"/>
+              <a:gd name="connsiteY1" fmla="*/ 773749 h 797762"/>
+              <a:gd name="connsiteX2" fmla="*/ 344565 w 1990725"/>
+              <a:gd name="connsiteY2" fmla="*/ 68899 h 797762"/>
+              <a:gd name="connsiteX3" fmla="*/ 1990725 w 1990725"/>
+              <a:gd name="connsiteY3" fmla="*/ 21274 h 797762"/>
+              <a:gd name="connsiteX4" fmla="*/ 1990725 w 1990725"/>
+              <a:gd name="connsiteY4" fmla="*/ 21274 h 797762"/>
+              <a:gd name="connsiteX0" fmla="*/ 2746 w 1993471"/>
+              <a:gd name="connsiteY0" fmla="*/ 554674 h 783784"/>
+              <a:gd name="connsiteX1" fmla="*/ 88194 w 1993471"/>
+              <a:gd name="connsiteY1" fmla="*/ 773749 h 783784"/>
+              <a:gd name="connsiteX2" fmla="*/ 347311 w 1993471"/>
+              <a:gd name="connsiteY2" fmla="*/ 68899 h 783784"/>
+              <a:gd name="connsiteX3" fmla="*/ 1993471 w 1993471"/>
+              <a:gd name="connsiteY3" fmla="*/ 21274 h 783784"/>
+              <a:gd name="connsiteX4" fmla="*/ 1993471 w 1993471"/>
+              <a:gd name="connsiteY4" fmla="*/ 21274 h 783784"/>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 1990725"/>
+              <a:gd name="connsiteY0" fmla="*/ 554674 h 783784"/>
+              <a:gd name="connsiteX1" fmla="*/ 162758 w 1990725"/>
+              <a:gd name="connsiteY1" fmla="*/ 773749 h 783784"/>
+              <a:gd name="connsiteX2" fmla="*/ 344565 w 1990725"/>
+              <a:gd name="connsiteY2" fmla="*/ 68899 h 783784"/>
+              <a:gd name="connsiteX3" fmla="*/ 1990725 w 1990725"/>
+              <a:gd name="connsiteY3" fmla="*/ 21274 h 783784"/>
+              <a:gd name="connsiteX4" fmla="*/ 1990725 w 1990725"/>
+              <a:gd name="connsiteY4" fmla="*/ 21274 h 783784"/>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 1990725"/>
+              <a:gd name="connsiteY0" fmla="*/ 554674 h 783784"/>
+              <a:gd name="connsiteX1" fmla="*/ 162758 w 1990725"/>
+              <a:gd name="connsiteY1" fmla="*/ 773749 h 783784"/>
+              <a:gd name="connsiteX2" fmla="*/ 344565 w 1990725"/>
+              <a:gd name="connsiteY2" fmla="*/ 68899 h 783784"/>
+              <a:gd name="connsiteX3" fmla="*/ 1990725 w 1990725"/>
+              <a:gd name="connsiteY3" fmla="*/ 21274 h 783784"/>
+              <a:gd name="connsiteX4" fmla="*/ 1990725 w 1990725"/>
+              <a:gd name="connsiteY4" fmla="*/ 21274 h 783784"/>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 1942406"/>
+              <a:gd name="connsiteY0" fmla="*/ 535624 h 794673"/>
+              <a:gd name="connsiteX1" fmla="*/ 114439 w 1942406"/>
+              <a:gd name="connsiteY1" fmla="*/ 773749 h 794673"/>
+              <a:gd name="connsiteX2" fmla="*/ 296246 w 1942406"/>
+              <a:gd name="connsiteY2" fmla="*/ 68899 h 794673"/>
+              <a:gd name="connsiteX3" fmla="*/ 1942406 w 1942406"/>
+              <a:gd name="connsiteY3" fmla="*/ 21274 h 794673"/>
+              <a:gd name="connsiteX4" fmla="*/ 1942406 w 1942406"/>
+              <a:gd name="connsiteY4" fmla="*/ 21274 h 794673"/>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 2000388"/>
+              <a:gd name="connsiteY0" fmla="*/ 478474 h 787482"/>
+              <a:gd name="connsiteX1" fmla="*/ 172421 w 2000388"/>
+              <a:gd name="connsiteY1" fmla="*/ 773749 h 787482"/>
+              <a:gd name="connsiteX2" fmla="*/ 354228 w 2000388"/>
+              <a:gd name="connsiteY2" fmla="*/ 68899 h 787482"/>
+              <a:gd name="connsiteX3" fmla="*/ 2000388 w 2000388"/>
+              <a:gd name="connsiteY3" fmla="*/ 21274 h 787482"/>
+              <a:gd name="connsiteX4" fmla="*/ 2000388 w 2000388"/>
+              <a:gd name="connsiteY4" fmla="*/ 21274 h 787482"/>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 2000388"/>
+              <a:gd name="connsiteY0" fmla="*/ 478474 h 773828"/>
+              <a:gd name="connsiteX1" fmla="*/ 172421 w 2000388"/>
+              <a:gd name="connsiteY1" fmla="*/ 773749 h 773828"/>
+              <a:gd name="connsiteX2" fmla="*/ 354228 w 2000388"/>
+              <a:gd name="connsiteY2" fmla="*/ 68899 h 773828"/>
+              <a:gd name="connsiteX3" fmla="*/ 2000388 w 2000388"/>
+              <a:gd name="connsiteY3" fmla="*/ 21274 h 773828"/>
+              <a:gd name="connsiteX4" fmla="*/ 2000388 w 2000388"/>
+              <a:gd name="connsiteY4" fmla="*/ 21274 h 773828"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="2000388" h="773828">
+                <a:moveTo>
+                  <a:pt x="0" y="478474"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="33337" y="641986"/>
+                  <a:pt x="16746" y="765811"/>
+                  <a:pt x="172421" y="773749"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="328096" y="781687"/>
+                  <a:pt x="49567" y="194311"/>
+                  <a:pt x="354228" y="68899"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="658889" y="-56513"/>
+                  <a:pt x="1726028" y="29211"/>
+                  <a:pt x="2000388" y="21274"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="2000388" y="21274"/>
+                </a:lnTo>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="pt-BR" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -3493,395 +4744,395 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="25" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="27" t="s">
+      <c r="F1" s="83"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="28" t="s">
+      <c r="I1" s="85"/>
+      <c r="J1" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="28"/>
-      <c r="L1" s="29" t="s">
+      <c r="K1" s="94"/>
+      <c r="L1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="9"/>
+      <c r="N1" s="7"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="25">
+      <c r="D2" s="21"/>
+      <c r="E2" s="82">
         <f>0 + (H12 * I9 * C6)</f>
         <v>0.5</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="30" t="s">
+      <c r="F2" s="83"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="30">
+      <c r="I2" s="19">
         <f>A3</f>
         <v>0</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="29">
+      <c r="K2" s="18">
         <f>E2</f>
         <v>0.5</v>
       </c>
-      <c r="L2" s="27">
+      <c r="L2" s="85">
         <f>(I2*K2)+(I3*K3)</f>
         <v>0</v>
       </c>
-      <c r="M2" s="27">
+      <c r="M2" s="85">
         <f>IF(L2&gt;=1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="N2" s="39"/>
+      <c r="N2" s="22"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>0</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>0</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>0</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="30" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="30">
+      <c r="I3" s="19">
         <f>B3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="29">
+      <c r="K3" s="18">
         <f>E2</f>
         <v>0.5</v>
       </c>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="39"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="22"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>0</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="31" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="30" t="s">
+      <c r="F4" s="86"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="30">
+      <c r="I4" s="19">
         <f>A4</f>
         <v>1</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="29">
+      <c r="K4" s="18">
         <f>E2</f>
         <v>0.5</v>
       </c>
-      <c r="L4" s="27">
+      <c r="L4" s="85">
         <f t="shared" ref="L4" si="0">(I4*K4)+(I5*K5)</f>
         <v>0.5</v>
       </c>
-      <c r="M4" s="27">
-        <f t="shared" ref="M3:M9" si="1">IF(L4&gt;=1,1,0)</f>
+      <c r="M4" s="85">
+        <f t="shared" ref="M4:M8" si="1">IF(L4&gt;=1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="N4" s="39"/>
+      <c r="N4" s="22"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>0</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>0</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="30" t="s">
+      <c r="D5" s="21"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="30">
+      <c r="I5" s="19">
         <f>B4</f>
         <v>0</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="J5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="29">
+      <c r="K5" s="18">
         <f>E2</f>
         <v>0.5</v>
       </c>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="39"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="22"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="30" t="s">
+      <c r="D6" s="21"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="19">
         <f>A5</f>
         <v>0</v>
       </c>
-      <c r="J6" s="29" t="s">
+      <c r="J6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="29">
+      <c r="K6" s="18">
         <f>E2</f>
         <v>0.5</v>
       </c>
-      <c r="L6" s="27">
+      <c r="L6" s="85">
         <f t="shared" ref="L6" si="2">(I6*K6)+(I7*K7)</f>
         <v>0.5</v>
       </c>
-      <c r="M6" s="27">
+      <c r="M6" s="85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N6" s="39"/>
+      <c r="N6" s="22"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="30" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="19">
         <f>B5</f>
         <v>1</v>
       </c>
-      <c r="J7" s="29" t="s">
+      <c r="J7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K7" s="18">
         <f>E2</f>
         <v>0.5</v>
       </c>
-      <c r="L7" s="27"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="39"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="22"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="30" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="19">
         <f>A6</f>
         <v>1</v>
       </c>
-      <c r="J8" s="29" t="s">
+      <c r="J8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="29">
+      <c r="K8" s="18">
         <f>E2</f>
         <v>0.5</v>
       </c>
-      <c r="L8" s="33">
+      <c r="L8" s="92">
         <f t="shared" ref="L8" si="3">(I8*K8)+(I9*K9)</f>
         <v>1</v>
       </c>
-      <c r="M8" s="34">
+      <c r="M8" s="90">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N8" s="39"/>
+      <c r="N8" s="22"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="40"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="30" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="19">
         <f>B6</f>
         <v>1</v>
       </c>
-      <c r="J9" s="29" t="s">
+      <c r="J9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="29">
+      <c r="K9" s="18">
         <f>E2</f>
         <v>0.5</v>
       </c>
-      <c r="L9" s="33"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="39"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="22"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="39"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="22"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="23" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="39"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="22"/>
     </row>
     <row r="12" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="27">
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="85">
         <v>0.5</v>
       </c>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="39"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="85"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="22"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="39"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="22"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="14"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="12"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
@@ -3889,179 +5140,185 @@
       </c>
     </row>
     <row r="17" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F17" s="58" t="s">
+      <c r="F17" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="88"/>
+      <c r="M17" s="88"/>
     </row>
     <row r="18" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
     </row>
     <row r="19" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
     </row>
     <row r="20" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
     </row>
     <row r="21" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="57">
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="87">
         <v>1</v>
       </c>
-      <c r="J21" s="43"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="44"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="27"/>
     </row>
     <row r="22" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="38"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="21"/>
     </row>
     <row r="23" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
     </row>
     <row r="24" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
     </row>
     <row r="25" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="56">
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="37">
         <v>0.5</v>
       </c>
-      <c r="J25" s="45"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
     </row>
     <row r="26" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
     </row>
     <row r="27" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
     </row>
     <row r="28" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F28" s="24"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
     </row>
     <row r="29" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F29" s="46"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="54">
+      <c r="F29" s="29"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="35">
         <v>-0.5</v>
       </c>
-      <c r="I29" s="55">
+      <c r="I29" s="36">
         <v>0</v>
       </c>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="53">
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="34">
         <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
     </row>
     <row r="31" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
     </row>
     <row r="32" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="H11:M11"/>
     <mergeCell ref="H12:M12"/>
@@ -4075,12 +5332,6 @@
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="L8:L9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4091,8 +5342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BAE548E-3C03-4BD2-A6FD-DF20AFEAFB03}">
   <dimension ref="A1:S60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4112,273 +5363,273 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="136" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="21" t="s">
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="144" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="22"/>
-      <c r="K1" s="58" t="s">
+      <c r="J1" s="145"/>
+      <c r="K1" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="77"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="48"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="136" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="65" t="s">
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="134" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="66">
+      <c r="J2" s="44">
         <v>1</v>
       </c>
-      <c r="K2" s="77"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="50" t="s">
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="77"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="136" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K5" s="77"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="85">
+      <c r="K5" s="48"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="53">
         <v>1</v>
       </c>
-      <c r="N5" s="59"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="77"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K6" s="77"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="77"/>
-      <c r="R6" s="77"/>
-      <c r="S6" s="77"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K7" s="77"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="77"/>
-      <c r="R7" s="77"/>
-      <c r="S7" s="77"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48"/>
+      <c r="S7" s="48"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K8" s="77"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="77"/>
-      <c r="Q8" s="77"/>
-      <c r="R8" s="77"/>
-      <c r="S8" s="77"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K9" s="77"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="56">
+      <c r="K9" s="48"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="37">
         <v>0.5</v>
       </c>
-      <c r="N9" s="45"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="77"/>
-      <c r="Q9" s="77"/>
-      <c r="R9" s="77"/>
-      <c r="S9" s="77"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="48"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K10" s="77"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="77"/>
-      <c r="Q10" s="77"/>
-      <c r="R10" s="77"/>
-      <c r="S10" s="77"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="48"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K11" s="77"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="77"/>
-      <c r="Q11" s="77"/>
-      <c r="R11" s="77"/>
-      <c r="S11" s="77"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K12" s="77"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="77"/>
-      <c r="Q12" s="77"/>
-      <c r="R12" s="77"/>
-      <c r="S12" s="77"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="48"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K13" s="109"/>
-      <c r="L13" s="84">
+      <c r="K13" s="59"/>
+      <c r="L13" s="52">
         <v>-0.5</v>
       </c>
-      <c r="M13" s="61">
+      <c r="M13" s="41">
         <v>0</v>
       </c>
-      <c r="N13" s="37"/>
-      <c r="O13" s="53">
+      <c r="N13" s="20"/>
+      <c r="O13" s="34">
         <v>0.5</v>
       </c>
-      <c r="P13" s="77"/>
-      <c r="Q13" s="77"/>
-      <c r="R13" s="77"/>
-      <c r="S13" s="77"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="48"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K14" s="77"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="77"/>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="77"/>
-      <c r="S14" s="77"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="48"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K15" s="77"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="77"/>
-      <c r="Q15" s="77"/>
-      <c r="R15" s="77"/>
-      <c r="S15" s="77"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="48"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K16" s="77"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="77"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="77"/>
-      <c r="S16" s="77"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
     </row>
     <row r="17" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="P17" s="77"/>
-      <c r="Q17" s="77"/>
-      <c r="R17" s="77"/>
-      <c r="S17" s="77"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
     </row>
     <row r="18" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="L18" s="63" t="s">
+      <c r="L18" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="M18" s="63"/>
-      <c r="P18" s="77"/>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="77"/>
-      <c r="S18" s="77"/>
+      <c r="M18" s="43"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
     </row>
     <row r="19" spans="8:19" x14ac:dyDescent="0.25">
       <c r="L19" t="s">
         <v>29</v>
       </c>
-      <c r="P19" s="77"/>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="77"/>
-      <c r="S19" s="77"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
     </row>
     <row r="20" spans="8:19" x14ac:dyDescent="0.25">
       <c r="L20" t="s">
@@ -4391,639 +5642,650 @@
       </c>
     </row>
     <row r="23" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="K23" s="64" t="s">
+      <c r="K23" s="120" t="s">
         <v>34</v>
       </c>
-      <c r="L23" s="64"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="64"/>
-      <c r="P23" s="104"/>
-      <c r="Q23" s="104"/>
-      <c r="R23" s="104"/>
+      <c r="L23" s="120"/>
+      <c r="M23" s="120"/>
+      <c r="N23" s="120"/>
+      <c r="O23" s="120"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="57"/>
+      <c r="R23" s="57"/>
     </row>
     <row r="25" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="H25" s="63">
+      <c r="H25" s="43">
         <v>4</v>
       </c>
-      <c r="I25" s="63">
+      <c r="I25" s="43">
         <v>0.8</v>
       </c>
     </row>
     <row r="26" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="H26" s="63">
+      <c r="H26" s="43">
         <v>3</v>
       </c>
-      <c r="I26" s="63">
+      <c r="I26" s="43">
         <v>0.6</v>
       </c>
     </row>
     <row r="27" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="H27" s="63">
+      <c r="H27" s="43">
         <v>2</v>
       </c>
-      <c r="I27" s="63">
+      <c r="I27" s="43">
         <v>0.4</v>
       </c>
     </row>
     <row r="28" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="H28" s="63">
+      <c r="H28" s="43">
         <v>1</v>
       </c>
-      <c r="I28" s="63">
+      <c r="I28" s="43">
         <v>0.2</v>
       </c>
     </row>
     <row r="29" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="H29" s="63">
+      <c r="H29" s="43">
         <v>0</v>
       </c>
-      <c r="I29" s="63">
+      <c r="I29" s="43">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="H30" s="63">
+      <c r="H30" s="43">
         <v>-1</v>
       </c>
-      <c r="I30" s="63">
+      <c r="I30" s="43">
         <v>-0.2</v>
       </c>
     </row>
     <row r="31" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="H31" s="63">
+      <c r="H31" s="43">
         <v>-2</v>
       </c>
-      <c r="I31" s="63">
+      <c r="I31" s="43">
         <v>-0.4</v>
       </c>
     </row>
     <row r="32" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="H32" s="63">
+      <c r="H32" s="43">
         <v>-3</v>
       </c>
-      <c r="I32" s="63">
+      <c r="I32" s="43">
         <v>-0.6</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H33" s="63">
+      <c r="H33" s="43">
         <v>-4</v>
       </c>
-      <c r="I33" s="63">
+      <c r="I33" s="43">
         <v>-0.8</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H35" s="67" t="s">
+      <c r="H35" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="I35" s="73"/>
-      <c r="J35" s="68"/>
+      <c r="I35" s="138"/>
+      <c r="J35" s="139"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H36" s="65" t="s">
+      <c r="H36" s="134" t="s">
         <v>37</v>
       </c>
-      <c r="I36" s="52" t="s">
+      <c r="I36" s="140" t="s">
         <v>35</v>
       </c>
-      <c r="J36" s="51"/>
+      <c r="J36" s="141"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H37" s="69"/>
-      <c r="I37" s="74" t="s">
+      <c r="H37" s="135"/>
+      <c r="I37" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="J37" s="72"/>
+      <c r="J37" s="143"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H39" s="64" t="s">
+      <c r="H39" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="I39" s="64"/>
-      <c r="J39" s="64"/>
+      <c r="I39" s="120"/>
+      <c r="J39" s="120"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="I43" s="105" t="s">
+      <c r="I43" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="J43" s="106"/>
-      <c r="K43" s="106"/>
-      <c r="L43" s="106"/>
-      <c r="M43" s="106"/>
-      <c r="N43" s="106"/>
-      <c r="O43" s="106"/>
-      <c r="P43" s="107"/>
+      <c r="J43" s="122"/>
+      <c r="K43" s="122"/>
+      <c r="L43" s="122"/>
+      <c r="M43" s="122"/>
+      <c r="N43" s="122"/>
+      <c r="O43" s="122"/>
+      <c r="P43" s="123"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19" t="s">
+      <c r="B44" s="102"/>
+      <c r="C44" s="102"/>
+      <c r="D44" s="102" t="s">
         <v>57</v>
       </c>
-      <c r="E44" s="19"/>
-      <c r="I44" s="89" t="s">
+      <c r="E44" s="102"/>
+      <c r="I44" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="J44" s="90"/>
-      <c r="K44" s="91"/>
-      <c r="L44" s="88" t="s">
+      <c r="J44" s="118"/>
+      <c r="K44" s="119"/>
+      <c r="L44" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="M44" s="89" t="s">
+      <c r="M44" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="N44" s="90"/>
-      <c r="O44" s="91"/>
-      <c r="P44" s="6" t="s">
+      <c r="N44" s="118"/>
+      <c r="O44" s="119"/>
+      <c r="P44" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="75" t="s">
+      <c r="A45" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="75" t="s">
+      <c r="B45" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="E45" s="18" t="s">
+      <c r="E45" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="G45" s="94" t="s">
+      <c r="G45" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="H45" s="95"/>
-      <c r="I45" s="25" t="s">
+      <c r="H45" s="133"/>
+      <c r="I45" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="J45" s="26"/>
-      <c r="K45" s="87" t="s">
+      <c r="J45" s="83"/>
+      <c r="K45" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="L45" s="6" t="s">
+      <c r="L45" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M45" s="108" t="s">
+      <c r="M45" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="N45" s="18" t="s">
+      <c r="N45" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="O45" s="18" t="s">
+      <c r="O45" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="P45" s="6" t="s">
+      <c r="P45" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
+      <c r="A46" s="3">
         <v>0</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="3">
         <v>0</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="1">
         <v>0</v>
       </c>
-      <c r="D46" s="110">
+      <c r="D46" s="60">
         <v>0.40600000000000003</v>
       </c>
-      <c r="E46" s="110">
+      <c r="E46" s="60">
         <f>C46-D46</f>
         <v>-0.40600000000000003</v>
       </c>
-      <c r="G46" s="32" t="s">
+      <c r="G46" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="H46" s="32">
+      <c r="H46" s="89">
         <v>1</v>
       </c>
-      <c r="I46" s="7" t="s">
+      <c r="I46" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J46" s="9">
+      <c r="J46" s="7">
         <v>-0.42399999999999999</v>
       </c>
-      <c r="K46" s="32">
+      <c r="K46" s="89">
         <f>(H46*J46)+(H49*J49)</f>
         <v>-6.6000000000000003E-2</v>
       </c>
-      <c r="L46" s="92">
+      <c r="L46" s="128">
         <f>1/(1+EXP(-K46))</f>
         <v>0.48350598689212332</v>
       </c>
-      <c r="M46" s="98">
+      <c r="M46" s="111">
         <f>L46</f>
         <v>0.48350598689212332</v>
       </c>
-      <c r="N46" s="20">
+      <c r="N46" s="124">
         <v>-1.7000000000000001E-2</v>
       </c>
-      <c r="O46" s="98">
+      <c r="O46" s="111">
         <f>M46*(N46) + M48 * (N48) + M50 * (N50)</f>
         <v>-0.16834783505262085</v>
       </c>
-      <c r="P46" s="100">
+      <c r="P46" s="114">
         <f>1/(1+EXP(-O46))</f>
         <v>0.45801215918849292</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
+      <c r="A47" s="3">
         <v>0</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="3">
         <v>1</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="1">
         <v>1</v>
       </c>
-      <c r="D47" s="110">
+      <c r="D47" s="60">
         <v>0.432</v>
       </c>
-      <c r="E47" s="110">
+      <c r="E47" s="60">
         <f t="shared" ref="E47:E49" si="0">C47-D47</f>
         <v>0.56800000000000006</v>
       </c>
-      <c r="G47" s="79"/>
-      <c r="H47" s="79"/>
-      <c r="I47" s="40" t="s">
+      <c r="G47" s="130"/>
+      <c r="H47" s="130"/>
+      <c r="I47" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="J47" s="82">
+      <c r="J47" s="51">
         <v>-0.74</v>
       </c>
-      <c r="K47" s="80"/>
-      <c r="L47" s="93"/>
-      <c r="M47" s="99"/>
-      <c r="N47" s="83"/>
-      <c r="O47" s="103"/>
-      <c r="P47" s="101"/>
+      <c r="K47" s="131"/>
+      <c r="L47" s="129"/>
+      <c r="M47" s="113"/>
+      <c r="N47" s="125"/>
+      <c r="O47" s="112"/>
+      <c r="P47" s="115"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
+      <c r="A48" s="3">
         <v>1</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="3">
         <v>0</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="1">
         <v>1</v>
       </c>
-      <c r="D48" s="110">
+      <c r="D48" s="60">
         <v>0.437</v>
       </c>
-      <c r="E48" s="110">
+      <c r="E48" s="60">
         <f t="shared" si="0"/>
         <v>0.56299999999999994</v>
       </c>
-      <c r="G48" s="80"/>
-      <c r="H48" s="80"/>
-      <c r="I48" s="40" t="s">
+      <c r="G48" s="131"/>
+      <c r="H48" s="131"/>
+      <c r="I48" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="J48" s="82">
+      <c r="J48" s="51">
         <v>-0.96099999999999997</v>
       </c>
-      <c r="K48" s="32">
+      <c r="K48" s="89">
         <f>(H46*J47)+(H49*J50)</f>
         <v>-1.3169999999999999</v>
       </c>
-      <c r="L48" s="92">
+      <c r="L48" s="128">
         <f t="shared" ref="L48" si="1">1/(1+EXP(-K48))</f>
         <v>0.21131784831127748</v>
       </c>
-      <c r="M48" s="98">
+      <c r="M48" s="111">
         <f>L48</f>
         <v>0.21131784831127748</v>
       </c>
-      <c r="N48" s="20">
+      <c r="N48" s="124">
         <v>-0.89300000000000002</v>
       </c>
-      <c r="O48" s="103"/>
-      <c r="P48" s="101"/>
+      <c r="O48" s="112"/>
+      <c r="P48" s="115"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
+      <c r="A49" s="3">
         <v>1</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="3">
         <v>1</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="1">
         <v>0</v>
       </c>
-      <c r="D49" s="110">
+      <c r="D49" s="60">
         <v>0.45800000000000002</v>
       </c>
-      <c r="E49" s="110">
+      <c r="E49" s="60">
         <f t="shared" si="0"/>
         <v>-0.45800000000000002</v>
       </c>
-      <c r="G49" s="32" t="s">
+      <c r="G49" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="H49" s="32">
+      <c r="H49" s="89">
         <v>1</v>
       </c>
-      <c r="I49" s="7" t="s">
+      <c r="I49" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J49" s="9">
+      <c r="J49" s="7">
         <v>0.35799999999999998</v>
       </c>
-      <c r="K49" s="80"/>
-      <c r="L49" s="93"/>
-      <c r="M49" s="99"/>
-      <c r="N49" s="83"/>
-      <c r="O49" s="103"/>
-      <c r="P49" s="101"/>
+      <c r="K49" s="131"/>
+      <c r="L49" s="129"/>
+      <c r="M49" s="113"/>
+      <c r="N49" s="125"/>
+      <c r="O49" s="112"/>
+      <c r="P49" s="115"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G50" s="79"/>
-      <c r="H50" s="79"/>
-      <c r="I50" s="40" t="s">
+      <c r="G50" s="130"/>
+      <c r="H50" s="130"/>
+      <c r="I50" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="J50" s="39">
+      <c r="J50" s="22">
         <v>-0.57699999999999996</v>
       </c>
-      <c r="K50" s="96">
+      <c r="K50" s="126">
         <f>(H46*J48)+(H49*J51)</f>
         <v>-1.43</v>
       </c>
-      <c r="L50" s="92">
+      <c r="L50" s="128">
         <f t="shared" ref="L50" si="2">1/(1+EXP(-K50))</f>
         <v>0.19309868423321644</v>
       </c>
-      <c r="M50" s="98">
+      <c r="M50" s="111">
         <f>L50</f>
         <v>0.19309868423321644</v>
       </c>
-      <c r="N50" s="20">
+      <c r="N50" s="124">
         <v>0.14799999999999999</v>
       </c>
-      <c r="O50" s="103"/>
-      <c r="P50" s="101"/>
+      <c r="O50" s="112"/>
+      <c r="P50" s="115"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G51" s="80"/>
-      <c r="H51" s="80"/>
-      <c r="I51" s="12" t="s">
+      <c r="G51" s="131"/>
+      <c r="H51" s="131"/>
+      <c r="I51" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="J51" s="14">
+      <c r="J51" s="12">
         <v>-0.46899999999999997</v>
       </c>
-      <c r="K51" s="97"/>
-      <c r="L51" s="93"/>
-      <c r="M51" s="99"/>
-      <c r="N51" s="83"/>
-      <c r="O51" s="99"/>
-      <c r="P51" s="102"/>
+      <c r="K51" s="127"/>
+      <c r="L51" s="129"/>
+      <c r="M51" s="113"/>
+      <c r="N51" s="125"/>
+      <c r="O51" s="113"/>
+      <c r="P51" s="116"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G52" s="76"/>
-      <c r="H52" s="76"/>
-      <c r="I52" s="77"/>
-      <c r="J52" s="77"/>
-      <c r="K52" s="78"/>
-      <c r="L52" s="81" t="s">
+      <c r="G52" s="47"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="48"/>
+      <c r="J52" s="48"/>
+      <c r="K52" s="49"/>
+      <c r="L52" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G53" s="76"/>
-      <c r="H53" s="76"/>
-      <c r="I53" s="77"/>
-      <c r="J53" s="77"/>
-      <c r="K53" s="78"/>
-      <c r="L53" s="136"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="48"/>
+      <c r="K53" s="49"/>
+      <c r="L53" s="78"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G54" s="76"/>
-      <c r="I54" s="77"/>
-      <c r="K54" s="78"/>
+      <c r="G54" s="47"/>
+      <c r="I54" s="48"/>
+      <c r="K54" s="49"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G55" s="76"/>
-      <c r="H55" s="139" t="s">
+      <c r="G55" s="47"/>
+      <c r="H55" s="97" t="s">
         <v>73</v>
       </c>
-      <c r="I55" s="77"/>
-      <c r="J55" s="141" t="s">
+      <c r="I55" s="48"/>
+      <c r="J55" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="K55" s="78"/>
-      <c r="L55" s="143" t="s">
+      <c r="K55" s="49"/>
+      <c r="L55" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="N55" s="144" t="s">
+      <c r="N55" s="96" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="130" t="s">
+      <c r="C56" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="D56" s="131"/>
-      <c r="E56" s="128" t="s">
+      <c r="D56" s="108"/>
+      <c r="E56" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="F56" s="70">
+      <c r="F56" s="45">
         <v>1</v>
       </c>
-      <c r="G56" s="134" t="s">
+      <c r="G56" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="H56" s="140"/>
-      <c r="I56" s="135" t="s">
+      <c r="H56" s="98"/>
+      <c r="I56" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="J56" s="142"/>
-      <c r="K56" s="137" t="s">
+      <c r="J56" s="100"/>
+      <c r="K56" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="L56" s="143"/>
-      <c r="M56" s="138" t="s">
+      <c r="L56" s="101"/>
+      <c r="M56" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="N56" s="144"/>
-      <c r="O56" s="117"/>
-      <c r="P56" s="117"/>
+      <c r="N56" s="96"/>
+      <c r="O56" s="66"/>
+      <c r="P56" s="66"/>
     </row>
     <row r="57" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="132"/>
-      <c r="D57" s="133"/>
-      <c r="E57" s="129"/>
-      <c r="F57" s="66" t="s">
+      <c r="C57" s="109"/>
+      <c r="D57" s="110"/>
+      <c r="E57" s="106"/>
+      <c r="F57" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="G57" s="127">
+      <c r="G57" s="75">
         <v>-6.6000000000000003E-2</v>
       </c>
-      <c r="H57" s="119">
+      <c r="H57" s="68">
         <f>1/(1+EXP(-G57))</f>
         <v>0.48350598689212332</v>
       </c>
-      <c r="I57" s="120">
+      <c r="I57" s="69">
         <v>-1.3169999999999999</v>
       </c>
-      <c r="J57" s="121">
+      <c r="J57" s="70">
         <f>1/(1+EXP(-I57))</f>
         <v>0.21131784831127748</v>
       </c>
-      <c r="K57" s="146">
+      <c r="K57" s="81">
         <v>-1.43</v>
       </c>
-      <c r="L57" s="122">
+      <c r="L57" s="71">
         <f>1/(1+EXP(-K57))</f>
         <v>0.19309868423321644</v>
       </c>
-      <c r="M57" s="124">
+      <c r="M57" s="73">
         <v>-1.43</v>
       </c>
-      <c r="N57" s="123">
+      <c r="N57" s="72">
         <f>1/(1+EXP(-M57))</f>
         <v>0.19309868423321644</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C58" s="126" t="s">
+      <c r="C58" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="D58" s="126"/>
-      <c r="E58" s="126"/>
-      <c r="F58" s="126"/>
-      <c r="G58" s="125" t="s">
+      <c r="D58" s="104"/>
+      <c r="E58" s="104"/>
+      <c r="F58" s="104"/>
+      <c r="G58" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="H58" s="116">
+      <c r="H58" s="65">
         <f>H57*(1-H57)</f>
         <v>0.24972794753159719</v>
       </c>
-      <c r="I58" s="118" t="s">
+      <c r="I58" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="J58" s="116">
+      <c r="J58" s="65">
         <f>J57*(1-J57)</f>
         <v>0.16666261529636942</v>
       </c>
-      <c r="K58" s="118" t="s">
+      <c r="K58" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="L58" s="116">
+      <c r="L58" s="65">
         <f>L57*(1-L57)</f>
         <v>0.15581158238061701</v>
       </c>
-      <c r="M58" s="118" t="s">
+      <c r="M58" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="N58" s="116">
+      <c r="N58" s="65">
         <f>N57*(1-N57)</f>
         <v>0.15581158238061701</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C59" s="145" t="s">
+      <c r="C59" s="103" t="s">
         <v>72</v>
       </c>
-      <c r="D59" s="145"/>
-      <c r="E59" s="145"/>
-      <c r="F59" s="145"/>
-      <c r="G59" s="115" t="s">
+      <c r="D59" s="103"/>
+      <c r="E59" s="103"/>
+      <c r="F59" s="103"/>
+      <c r="G59" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="H59" s="116">
+      <c r="H59" s="65">
         <f>E46 *H58</f>
         <v>-0.10138954669782846</v>
       </c>
-      <c r="I59" s="115" t="s">
+      <c r="I59" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="J59" s="116">
+      <c r="J59" s="65">
         <f>E47 *J58</f>
         <v>9.4664365488337843E-2</v>
       </c>
-      <c r="K59" s="115" t="s">
+      <c r="K59" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="L59" s="116">
+      <c r="L59" s="65">
         <f>E48 *L58</f>
         <v>8.7721920880287366E-2</v>
       </c>
-      <c r="M59" s="115" t="s">
+      <c r="M59" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="N59" s="116">
+      <c r="N59" s="65">
         <f>E49 *N58</f>
         <v>-7.1361704730322592E-2</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="115" t="s">
+      <c r="C60" s="95"/>
+      <c r="D60" s="95"/>
+      <c r="E60" s="95"/>
+      <c r="F60" s="95"/>
+      <c r="G60" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="H60" s="116">
+      <c r="H60" s="65">
         <f>H58*(N46)*(H59)</f>
         <v>4.3043665776613135E-4</v>
       </c>
-      <c r="I60" s="115" t="s">
+      <c r="I60" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="J60" s="116">
+      <c r="J60" s="65">
         <f>J58*(N48)*(J59)</f>
         <v>-1.4088870579798379E-2</v>
       </c>
-      <c r="K60" s="115" t="s">
+      <c r="K60" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="L60" s="116">
+      <c r="L60" s="65">
         <f>L58*(N50)*(L59)</f>
         <v>2.0228775126700797E-3</v>
       </c>
-      <c r="M60" s="115" t="s">
+      <c r="M60" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="N60" s="116">
+      <c r="N60" s="65">
         <f>N58*T46*N59</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="B60:F60"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="C59:F59"/>
-    <mergeCell ref="C58:F58"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="G46:G48"/>
+    <mergeCell ref="G49:G51"/>
+    <mergeCell ref="H49:H51"/>
+    <mergeCell ref="H46:H48"/>
+    <mergeCell ref="G45:H45"/>
     <mergeCell ref="O46:O51"/>
     <mergeCell ref="P46:P51"/>
     <mergeCell ref="K1:O1"/>
@@ -5039,28 +6301,17 @@
     <mergeCell ref="N50:N51"/>
     <mergeCell ref="K50:K51"/>
     <mergeCell ref="L50:L51"/>
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="G49:G51"/>
-    <mergeCell ref="H49:H51"/>
-    <mergeCell ref="H46:H48"/>
-    <mergeCell ref="G45:H45"/>
     <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="L55:L56"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -5072,7 +6323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A25DEB-25D5-484C-93A1-F33B72048DB6}">
   <dimension ref="B2:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
@@ -5087,7 +6338,7 @@
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="43" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5097,33 +6348,33 @@
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="113" t="s">
+      <c r="B5" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="112" t="s">
+      <c r="H5" s="62" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L6" s="114" t="s">
+      <c r="L6" s="147" t="s">
         <v>67</v>
       </c>
-      <c r="M6" s="114"/>
+      <c r="M6" s="147"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
+      <c r="L7" s="147"/>
+      <c r="M7" s="147"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="L8" s="114"/>
-      <c r="M8" s="114"/>
+      <c r="L8" s="147"/>
+      <c r="M8" s="147"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="146" t="s">
         <v>64</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="J10" s="146"/>
+      <c r="K10" s="146"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
@@ -5131,28 +6382,28 @@
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="G16" s="111" t="s">
+      <c r="G16" s="61" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="18" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="L18" s="63" t="s">
+      <c r="L18" s="43" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="19" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="146" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
     </row>
     <row r="20" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="146" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5164,4 +6415,467 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E871CC9C-1361-4787-8816-44BE209CED79}">
+  <dimension ref="A1:M23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="152" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="153" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="153"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="158" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="158" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="158" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="158" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="159" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="159"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="19">
+        <v>0</v>
+      </c>
+      <c r="B13" s="19">
+        <v>0</v>
+      </c>
+      <c r="C13" s="19">
+        <v>0</v>
+      </c>
+      <c r="D13" s="19">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="E13" s="154">
+        <f>POWER((C13-D13), 2)</f>
+        <v>0.16483600000000001</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="19">
+        <v>0</v>
+      </c>
+      <c r="B14" s="19">
+        <v>1</v>
+      </c>
+      <c r="C14" s="19">
+        <v>1</v>
+      </c>
+      <c r="D14" s="19">
+        <v>0.432</v>
+      </c>
+      <c r="E14" s="154">
+        <f t="shared" ref="E14:E16" si="0">POWER((C14-D14), 2)</f>
+        <v>0.32262400000000008</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="19">
+        <v>1</v>
+      </c>
+      <c r="B15" s="19">
+        <v>0</v>
+      </c>
+      <c r="C15" s="19">
+        <v>1</v>
+      </c>
+      <c r="D15" s="19">
+        <v>0.437</v>
+      </c>
+      <c r="E15" s="154">
+        <f t="shared" si="0"/>
+        <v>0.31696899999999995</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="19">
+        <v>1</v>
+      </c>
+      <c r="B16" s="19">
+        <v>1</v>
+      </c>
+      <c r="C16" s="19">
+        <v>0</v>
+      </c>
+      <c r="D16" s="19">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="E16" s="154">
+        <f t="shared" si="0"/>
+        <v>0.20976400000000001</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="155">
+        <f>SUM(E13:E16)</f>
+        <v>1.0141930000000001</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="148">
+        <v>1</v>
+      </c>
+      <c r="E19" s="150">
+        <f>E18</f>
+        <v>1.0141930000000001</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="149" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="151"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="157">
+        <f>(D19*E18)/4</f>
+        <v>0.25354825000000003</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="156" t="s">
+        <v>84</v>
+      </c>
+      <c r="I22" s="157">
+        <f>SQRT(E22)</f>
+        <v>0.50353574848266736</v>
+      </c>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/machine-learning/analises/formula_neural_network_perceptron.xlsx
+++ b/machine-learning/analises/formula_neural_network_perceptron.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\estudo-machine-learning\estudo-python\machine-learning\analises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAF3EF3-C9A9-453E-A114-CB0879875565}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC796BF-F563-4EA2-8AF4-F2951E918A2E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{DDD0F2B3-C02C-4CAD-B86B-257F422108DD}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="3" xr2:uid="{DDD0F2B3-C02C-4CAD-B86B-257F422108DD}"/>
   </bookViews>
   <sheets>
     <sheet name="perceptron_neural_network" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="86">
   <si>
     <t>Base</t>
   </si>
@@ -293,32 +293,36 @@
     <t>MSE = Mean Square Error</t>
   </si>
   <si>
-    <t>(0 - 0.406)²</t>
-  </si>
-  <si>
-    <t>(0 - 0.432)²</t>
-  </si>
-  <si>
-    <t>(0 - 0.437)²</t>
-  </si>
-  <si>
-    <t>(0 - 0.458)²</t>
-  </si>
-  <si>
     <t>Fórmula do erro MSE e RMSE</t>
   </si>
   <si>
     <t>RMSE</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>(0 - 0.490)²</t>
+  </si>
+  <si>
+    <t>(0 - 0.000)²</t>
+  </si>
+  <si>
+    <t>(0 - 0.012)²</t>
+  </si>
+  <si>
+    <t>(0 - 0.102)²</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.000000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -802,7 +806,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -973,222 +977,16 @@
     <xf numFmtId="165" fontId="0" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1196,9 +994,219 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3251,8 +3259,8 @@
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2790824" cy="840230"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CaixaDeTexto 1">
@@ -3294,6 +3302,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -3591,7 +3600,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CaixaDeTexto 1">
@@ -3731,14 +3740,14 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3171825" y="635951"/>
+          <a:off x="3371850" y="635951"/>
           <a:ext cx="3295650" cy="1042479"/>
           <a:chOff x="3181350" y="483551"/>
           <a:chExt cx="3295650" cy="1042479"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+        <mc:Choice Requires="a14">
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="5" name="CaixaDeTexto 4">
@@ -3780,6 +3789,7 @@
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
+                <a:pPr/>
                 <a14:m>
                   <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                     <m:oMathParaPr>
@@ -4088,7 +4098,7 @@
             </xdr:txBody>
           </xdr:sp>
         </mc:Choice>
-        <mc:Fallback>
+        <mc:Fallback xmlns="">
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="5" name="CaixaDeTexto 4">
@@ -4726,7 +4736,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:M12"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4738,27 +4748,27 @@
     <col min="8" max="8" width="9.5703125" customWidth="1"/>
     <col min="9" max="9" width="9.28515625" customWidth="1"/>
     <col min="10" max="10" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
       <c r="D1" s="20"/>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="83"/>
+      <c r="F1" s="92"/>
       <c r="G1" s="20"/>
-      <c r="H1" s="85" t="s">
+      <c r="H1" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="85"/>
+      <c r="I1" s="93"/>
       <c r="J1" s="94" t="s">
         <v>13</v>
       </c>
@@ -4782,39 +4792,38 @@
         <v>3</v>
       </c>
       <c r="D2" s="21"/>
-      <c r="E2" s="82">
+      <c r="E2" s="90">
         <f>0 + (H12 * I9 * C6)</f>
-        <v>0.5</v>
-      </c>
-      <c r="F2" s="83"/>
+        <v>0</v>
+      </c>
+      <c r="F2" s="92"/>
       <c r="G2" s="21"/>
       <c r="H2" s="19" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="19">
         <f>A3</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J2" s="18" t="s">
         <v>14</v>
       </c>
       <c r="K2" s="18">
-        <f>E2</f>
-        <v>0.5</v>
-      </c>
-      <c r="L2" s="85">
-        <f>(I2*K2)+(I3*K3)</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="85">
+        <v>0.2</v>
+      </c>
+      <c r="L2" s="93">
+        <f>(I2*K2)+(I4*K4)+(I6*K6)</f>
+        <v>2.1</v>
+      </c>
+      <c r="M2" s="93">
         <f>IF(L2&gt;=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" s="22"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
@@ -4838,15 +4847,15 @@
       </c>
       <c r="K3" s="18">
         <f>E2</f>
-        <v>0.5</v>
-      </c>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
+        <v>0</v>
+      </c>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
       <c r="N3" s="22"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -4855,48 +4864,47 @@
         <v>0</v>
       </c>
       <c r="D4" s="21"/>
-      <c r="E4" s="86" t="s">
+      <c r="E4" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="86"/>
+      <c r="F4" s="95"/>
       <c r="G4" s="21"/>
       <c r="H4" s="19" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="19">
         <f>A4</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" s="18" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="18">
-        <f>E2</f>
         <v>0.5</v>
       </c>
-      <c r="L4" s="85">
-        <f t="shared" ref="L4" si="0">(I4*K4)+(I5*K5)</f>
-        <v>0.5</v>
-      </c>
-      <c r="M4" s="85">
-        <f t="shared" ref="M4:M8" si="1">IF(L4&gt;=1,1,0)</f>
-        <v>0</v>
+      <c r="L4" s="93">
+        <f>(I4*K4)+(I5*K5)</f>
+        <v>1</v>
+      </c>
+      <c r="M4" s="93">
+        <f t="shared" ref="M4:M8" si="0">IF(L4&gt;=1,1,0)</f>
+        <v>1</v>
       </c>
       <c r="N4" s="22"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
         <v>0</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
       </c>
       <c r="D5" s="21"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
       <c r="G5" s="21"/>
       <c r="H5" s="19" t="s">
         <v>6</v>
@@ -4910,46 +4918,45 @@
       </c>
       <c r="K5" s="18">
         <f>E2</f>
-        <v>0.5</v>
-      </c>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="93"/>
+      <c r="M5" s="93"/>
       <c r="N5" s="22"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="21"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
       <c r="G6" s="21"/>
       <c r="H6" s="19" t="s">
         <v>5</v>
       </c>
       <c r="I6" s="19">
         <f>A5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="18" t="s">
         <v>14</v>
       </c>
       <c r="K6" s="18">
-        <f>E2</f>
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="85">
-        <f t="shared" ref="L6" si="2">(I6*K6)+(I7*K7)</f>
-        <v>0.5</v>
-      </c>
-      <c r="M6" s="85">
-        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="L6" s="93">
+        <f t="shared" ref="L6" si="1">(I6*K6)+(I7*K7)</f>
+        <v>0.1</v>
+      </c>
+      <c r="M6" s="93">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N6" s="22"/>
@@ -4959,25 +4966,25 @@
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
       <c r="G7" s="21"/>
       <c r="H7" s="19" t="s">
         <v>6</v>
       </c>
       <c r="I7" s="19">
         <f>B5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="18" t="s">
         <v>15</v>
       </c>
       <c r="K7" s="18">
         <f>E2</f>
-        <v>0.5</v>
-      </c>
-      <c r="L7" s="85"/>
-      <c r="M7" s="89"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="93"/>
+      <c r="M7" s="98"/>
       <c r="N7" s="22"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -4985,30 +4992,30 @@
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
       <c r="G8" s="21"/>
       <c r="H8" s="19" t="s">
         <v>5</v>
       </c>
       <c r="I8" s="19">
         <f>A6</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="18" t="s">
         <v>14</v>
       </c>
       <c r="K8" s="18">
         <f>E2</f>
-        <v>0.5</v>
-      </c>
-      <c r="L8" s="92">
-        <f t="shared" ref="L8" si="3">(I8*K8)+(I9*K9)</f>
-        <v>1</v>
-      </c>
-      <c r="M8" s="90">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L8" s="101">
+        <f t="shared" ref="L8" si="2">(I8*K8)+(I9*K9)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="99">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="N8" s="22"/>
     </row>
@@ -5017,33 +5024,33 @@
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
       <c r="G9" s="21"/>
       <c r="H9" s="19" t="s">
         <v>6</v>
       </c>
       <c r="I9" s="19">
         <f>B6</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="18" t="s">
         <v>15</v>
       </c>
       <c r="K9" s="18">
         <f>E2</f>
-        <v>0.5</v>
-      </c>
-      <c r="L9" s="92"/>
-      <c r="M9" s="91"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="101"/>
+      <c r="M9" s="100"/>
       <c r="N9" s="22"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="82" t="s">
+      <c r="A10" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="93"/>
-      <c r="C10" s="83"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="92"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
@@ -5066,14 +5073,14 @@
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
-      <c r="H11" s="84" t="s">
+      <c r="H11" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="84"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="84"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="89"/>
       <c r="N11" s="22"/>
     </row>
     <row r="12" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
@@ -5090,14 +5097,14 @@
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
-      <c r="H12" s="85">
+      <c r="H12" s="93">
         <v>0.5</v>
       </c>
-      <c r="I12" s="85"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="85"/>
-      <c r="M12" s="85"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="93"/>
       <c r="N12" s="22"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -5140,16 +5147,16 @@
       </c>
     </row>
     <row r="17" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F17" s="88" t="s">
+      <c r="F17" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="88"/>
-      <c r="M17" s="88"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="97"/>
+      <c r="L17" s="97"/>
+      <c r="M17" s="97"/>
     </row>
     <row r="18" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F18" s="17"/>
@@ -5185,7 +5192,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="87">
+      <c r="I21" s="96">
         <v>1</v>
       </c>
       <c r="J21" s="26"/>
@@ -5197,7 +5204,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
-      <c r="I22" s="87"/>
+      <c r="I22" s="96"/>
       <c r="J22" s="28"/>
       <c r="K22" s="29"/>
       <c r="L22" s="29"/>
@@ -5313,6 +5320,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="E4:F9"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="F17:M17"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="H1:I1"/>
@@ -5320,18 +5339,6 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="E4:F9"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="F17:M17"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="L8:L9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -5343,7 +5350,7 @@
   <dimension ref="A1:S60"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5363,44 +5370,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="144" t="s">
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="145"/>
-      <c r="K1" s="88" t="s">
+      <c r="J1" s="105"/>
+      <c r="K1" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
       <c r="P1" s="54"/>
       <c r="Q1" s="54"/>
       <c r="R1" s="54"/>
       <c r="S1" s="48"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="134" t="s">
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="103" t="s">
         <v>33</v>
       </c>
       <c r="J2" s="44">
@@ -5417,17 +5424,17 @@
       <c r="S2" s="48"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="136" t="s">
+      <c r="A3" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="134"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="103"/>
       <c r="J3" s="33" t="s">
         <v>38</v>
       </c>
@@ -5442,16 +5449,16 @@
       <c r="S3" s="48"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="136" t="s">
+      <c r="A4" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="136"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
       <c r="I4" s="10"/>
       <c r="J4" s="12"/>
       <c r="K4" s="48"/>
@@ -5642,13 +5649,13 @@
       </c>
     </row>
     <row r="23" spans="8:19" x14ac:dyDescent="0.25">
-      <c r="K23" s="120" t="s">
+      <c r="K23" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="L23" s="120"/>
-      <c r="M23" s="120"/>
-      <c r="N23" s="120"/>
-      <c r="O23" s="120"/>
+      <c r="L23" s="118"/>
+      <c r="M23" s="118"/>
+      <c r="N23" s="118"/>
+      <c r="O23" s="118"/>
       <c r="P23" s="57"/>
       <c r="Q23" s="57"/>
       <c r="R23" s="57"/>
@@ -5726,70 +5733,70 @@
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H35" s="137" t="s">
+      <c r="H35" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="I35" s="138"/>
-      <c r="J35" s="139"/>
+      <c r="I35" s="108"/>
+      <c r="J35" s="109"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H36" s="134" t="s">
+      <c r="H36" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="I36" s="140" t="s">
+      <c r="I36" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="J36" s="141"/>
+      <c r="J36" s="111"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H37" s="135"/>
-      <c r="I37" s="142" t="s">
+      <c r="H37" s="117"/>
+      <c r="I37" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="J37" s="143"/>
+      <c r="J37" s="113"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H39" s="120" t="s">
+      <c r="H39" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="I39" s="120"/>
-      <c r="J39" s="120"/>
+      <c r="I39" s="118"/>
+      <c r="J39" s="118"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="I43" s="121" t="s">
+      <c r="I43" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="J43" s="122"/>
-      <c r="K43" s="122"/>
-      <c r="L43" s="122"/>
-      <c r="M43" s="122"/>
-      <c r="N43" s="122"/>
-      <c r="O43" s="122"/>
-      <c r="P43" s="123"/>
+      <c r="J43" s="132"/>
+      <c r="K43" s="132"/>
+      <c r="L43" s="132"/>
+      <c r="M43" s="132"/>
+      <c r="N43" s="132"/>
+      <c r="O43" s="132"/>
+      <c r="P43" s="133"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="102" t="s">
+      <c r="A44" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="102"/>
-      <c r="C44" s="102"/>
-      <c r="D44" s="102" t="s">
+      <c r="B44" s="106"/>
+      <c r="C44" s="106"/>
+      <c r="D44" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="E44" s="102"/>
-      <c r="I44" s="117" t="s">
+      <c r="E44" s="106"/>
+      <c r="I44" s="128" t="s">
         <v>52</v>
       </c>
-      <c r="J44" s="118"/>
-      <c r="K44" s="119"/>
+      <c r="J44" s="129"/>
+      <c r="K44" s="130"/>
       <c r="L44" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="M44" s="117" t="s">
+      <c r="M44" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="N44" s="118"/>
-      <c r="O44" s="119"/>
+      <c r="N44" s="129"/>
+      <c r="O44" s="130"/>
       <c r="P44" s="4" t="s">
         <v>51</v>
       </c>
@@ -5810,14 +5817,14 @@
       <c r="E45" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="G45" s="132" t="s">
+      <c r="G45" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="H45" s="133"/>
-      <c r="I45" s="82" t="s">
+      <c r="H45" s="121"/>
+      <c r="I45" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="J45" s="83"/>
+      <c r="J45" s="92"/>
       <c r="K45" s="55" t="s">
         <v>45</v>
       </c>
@@ -5854,40 +5861,40 @@
         <f>C46-D46</f>
         <v>-0.40600000000000003</v>
       </c>
-      <c r="G46" s="89" t="s">
+      <c r="G46" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="H46" s="89">
-        <v>1</v>
+      <c r="H46" s="98">
+        <v>5</v>
       </c>
       <c r="I46" s="5" t="s">
         <v>14</v>
       </c>
       <c r="J46" s="7">
-        <v>-0.42399999999999999</v>
-      </c>
-      <c r="K46" s="89">
-        <f>(H46*J46)+(H49*J49)</f>
-        <v>-6.6000000000000003E-2</v>
-      </c>
-      <c r="L46" s="128">
+        <v>0.2</v>
+      </c>
+      <c r="K46" s="98">
+        <f>(H46*J46)+(H49*J49)+(H52*J52)</f>
+        <v>2.1</v>
+      </c>
+      <c r="L46" s="115">
         <f>1/(1+EXP(-K46))</f>
-        <v>0.48350598689212332</v>
-      </c>
-      <c r="M46" s="111">
+        <v>0.89090317880438707</v>
+      </c>
+      <c r="M46" s="122">
         <f>L46</f>
-        <v>0.48350598689212332</v>
-      </c>
-      <c r="N46" s="124">
+        <v>0.89090317880438707</v>
+      </c>
+      <c r="N46" s="134">
         <v>-1.7000000000000001E-2</v>
       </c>
-      <c r="O46" s="111">
+      <c r="O46" s="122">
         <f>M46*(N46) + M48 * (N48) + M50 * (N50)</f>
-        <v>-0.16834783505262085</v>
-      </c>
-      <c r="P46" s="114">
+        <v>-0.38764535403967459</v>
+      </c>
+      <c r="P46" s="125">
         <f>1/(1+EXP(-O46))</f>
-        <v>0.45801215918849292</v>
+        <v>0.40428426205664669</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
@@ -5907,20 +5914,20 @@
         <f t="shared" ref="E47:E49" si="0">C47-D47</f>
         <v>0.56800000000000006</v>
       </c>
-      <c r="G47" s="130"/>
-      <c r="H47" s="130"/>
+      <c r="G47" s="119"/>
+      <c r="H47" s="119"/>
       <c r="I47" s="23" t="s">
         <v>15</v>
       </c>
       <c r="J47" s="51">
-        <v>-0.74</v>
-      </c>
-      <c r="K47" s="131"/>
-      <c r="L47" s="129"/>
-      <c r="M47" s="113"/>
-      <c r="N47" s="125"/>
-      <c r="O47" s="112"/>
-      <c r="P47" s="115"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="114"/>
+      <c r="L47" s="116"/>
+      <c r="M47" s="124"/>
+      <c r="N47" s="135"/>
+      <c r="O47" s="123"/>
+      <c r="P47" s="126"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
@@ -5939,31 +5946,31 @@
         <f t="shared" si="0"/>
         <v>0.56299999999999994</v>
       </c>
-      <c r="G48" s="131"/>
-      <c r="H48" s="131"/>
+      <c r="G48" s="114"/>
+      <c r="H48" s="114"/>
       <c r="I48" s="23" t="s">
         <v>42</v>
       </c>
       <c r="J48" s="51">
-        <v>-0.96099999999999997</v>
-      </c>
-      <c r="K48" s="89">
+        <v>0</v>
+      </c>
+      <c r="K48" s="98">
         <f>(H46*J47)+(H49*J50)</f>
-        <v>-1.3169999999999999</v>
-      </c>
-      <c r="L48" s="128">
+        <v>0</v>
+      </c>
+      <c r="L48" s="115">
         <f t="shared" ref="L48" si="1">1/(1+EXP(-K48))</f>
-        <v>0.21131784831127748</v>
-      </c>
-      <c r="M48" s="111">
+        <v>0.5</v>
+      </c>
+      <c r="M48" s="122">
         <f>L48</f>
-        <v>0.21131784831127748</v>
-      </c>
-      <c r="N48" s="124">
+        <v>0.5</v>
+      </c>
+      <c r="N48" s="134">
         <v>-0.89300000000000002</v>
       </c>
-      <c r="O48" s="112"/>
-      <c r="P48" s="115"/>
+      <c r="O48" s="123"/>
+      <c r="P48" s="126"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
@@ -5982,73 +5989,81 @@
         <f t="shared" si="0"/>
         <v>-0.45800000000000002</v>
       </c>
-      <c r="G49" s="89" t="s">
+      <c r="G49" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="H49" s="89">
-        <v>1</v>
+      <c r="H49" s="98">
+        <v>2</v>
       </c>
       <c r="I49" s="5" t="s">
         <v>14</v>
       </c>
       <c r="J49" s="7">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="K49" s="131"/>
-      <c r="L49" s="129"/>
-      <c r="M49" s="113"/>
-      <c r="N49" s="125"/>
-      <c r="O49" s="112"/>
-      <c r="P49" s="115"/>
+        <v>0.5</v>
+      </c>
+      <c r="K49" s="114"/>
+      <c r="L49" s="116"/>
+      <c r="M49" s="124"/>
+      <c r="N49" s="135"/>
+      <c r="O49" s="123"/>
+      <c r="P49" s="126"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G50" s="130"/>
-      <c r="H50" s="130"/>
+      <c r="G50" s="119"/>
+      <c r="H50" s="119"/>
       <c r="I50" s="23" t="s">
         <v>15</v>
       </c>
       <c r="J50" s="22">
-        <v>-0.57699999999999996</v>
-      </c>
-      <c r="K50" s="126">
+        <v>0</v>
+      </c>
+      <c r="K50" s="136">
         <f>(H46*J48)+(H49*J51)</f>
-        <v>-1.43</v>
-      </c>
-      <c r="L50" s="128">
+        <v>0</v>
+      </c>
+      <c r="L50" s="115">
         <f t="shared" ref="L50" si="2">1/(1+EXP(-K50))</f>
-        <v>0.19309868423321644</v>
-      </c>
-      <c r="M50" s="111">
+        <v>0.5</v>
+      </c>
+      <c r="M50" s="122">
         <f>L50</f>
-        <v>0.19309868423321644</v>
-      </c>
-      <c r="N50" s="124">
+        <v>0.5</v>
+      </c>
+      <c r="N50" s="134">
         <v>0.14799999999999999</v>
       </c>
-      <c r="O50" s="112"/>
-      <c r="P50" s="115"/>
+      <c r="O50" s="123"/>
+      <c r="P50" s="126"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G51" s="131"/>
-      <c r="H51" s="131"/>
+      <c r="G51" s="114"/>
+      <c r="H51" s="114"/>
       <c r="I51" s="10" t="s">
         <v>42</v>
       </c>
       <c r="J51" s="12">
-        <v>-0.46899999999999997</v>
-      </c>
-      <c r="K51" s="127"/>
-      <c r="L51" s="129"/>
-      <c r="M51" s="113"/>
-      <c r="N51" s="125"/>
-      <c r="O51" s="113"/>
-      <c r="P51" s="116"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="137"/>
+      <c r="L51" s="116"/>
+      <c r="M51" s="124"/>
+      <c r="N51" s="135"/>
+      <c r="O51" s="124"/>
+      <c r="P51" s="127"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G52" s="47"/>
-      <c r="H52" s="47"/>
-      <c r="I52" s="48"/>
-      <c r="J52" s="48"/>
+      <c r="G52" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="H52" s="47">
+        <v>1</v>
+      </c>
+      <c r="I52" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="J52" s="22">
+        <v>0.1</v>
+      </c>
       <c r="K52" s="49"/>
       <c r="L52" s="50" t="s">
         <v>54</v>
@@ -6073,27 +6088,27 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G55" s="47"/>
-      <c r="H55" s="97" t="s">
+      <c r="H55" s="148" t="s">
         <v>73</v>
       </c>
       <c r="I55" s="48"/>
-      <c r="J55" s="99" t="s">
+      <c r="J55" s="150" t="s">
         <v>73</v>
       </c>
       <c r="K55" s="49"/>
-      <c r="L55" s="101" t="s">
+      <c r="L55" s="152" t="s">
         <v>73</v>
       </c>
-      <c r="N55" s="96" t="s">
+      <c r="N55" s="147" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="107" t="s">
+      <c r="C56" s="142" t="s">
         <v>70</v>
       </c>
-      <c r="D56" s="108"/>
-      <c r="E56" s="105" t="s">
+      <c r="D56" s="143"/>
+      <c r="E56" s="140" t="s">
         <v>33</v>
       </c>
       <c r="F56" s="45">
@@ -6102,35 +6117,35 @@
       <c r="G56" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="H56" s="98"/>
+      <c r="H56" s="149"/>
       <c r="I56" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="J56" s="100"/>
+      <c r="J56" s="151"/>
       <c r="K56" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="L56" s="101"/>
+      <c r="L56" s="152"/>
       <c r="M56" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="N56" s="96"/>
+      <c r="N56" s="147"/>
       <c r="O56" s="66"/>
       <c r="P56" s="66"/>
     </row>
     <row r="57" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="109"/>
-      <c r="D57" s="110"/>
-      <c r="E57" s="106"/>
+      <c r="C57" s="144"/>
+      <c r="D57" s="145"/>
+      <c r="E57" s="141"/>
       <c r="F57" s="44" t="s">
         <v>38</v>
       </c>
       <c r="G57" s="75">
-        <v>-6.6000000000000003E-2</v>
+        <v>2.1</v>
       </c>
       <c r="H57" s="68">
         <f>1/(1+EXP(-G57))</f>
-        <v>0.48350598689212332</v>
+        <v>0.89090317880438707</v>
       </c>
       <c r="I57" s="69">
         <v>-1.3169999999999999</v>
@@ -6155,18 +6170,18 @@
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C58" s="104" t="s">
+      <c r="C58" s="139" t="s">
         <v>71</v>
       </c>
-      <c r="D58" s="104"/>
-      <c r="E58" s="104"/>
-      <c r="F58" s="104"/>
+      <c r="D58" s="139"/>
+      <c r="E58" s="139"/>
+      <c r="F58" s="139"/>
       <c r="G58" s="74" t="s">
         <v>69</v>
       </c>
       <c r="H58" s="65">
         <f>H57*(1-H57)</f>
-        <v>0.24972794753159719</v>
+        <v>9.7194704800625392E-2</v>
       </c>
       <c r="I58" s="67" t="s">
         <v>69</v>
@@ -6191,18 +6206,18 @@
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C59" s="103" t="s">
+      <c r="C59" s="138" t="s">
         <v>72</v>
       </c>
-      <c r="D59" s="103"/>
-      <c r="E59" s="103"/>
-      <c r="F59" s="103"/>
+      <c r="D59" s="138"/>
+      <c r="E59" s="138"/>
+      <c r="F59" s="138"/>
       <c r="G59" s="64" t="s">
         <v>68</v>
       </c>
       <c r="H59" s="65">
         <f>E46 *H58</f>
-        <v>-0.10138954669782846</v>
+        <v>-3.9461050149053913E-2</v>
       </c>
       <c r="I59" s="64" t="s">
         <v>68</v>
@@ -6227,19 +6242,19 @@
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B60" s="95" t="s">
+      <c r="B60" s="146" t="s">
         <v>75</v>
       </c>
-      <c r="C60" s="95"/>
-      <c r="D60" s="95"/>
-      <c r="E60" s="95"/>
-      <c r="F60" s="95"/>
+      <c r="C60" s="146"/>
+      <c r="D60" s="146"/>
+      <c r="E60" s="146"/>
+      <c r="F60" s="146"/>
       <c r="G60" s="64" t="s">
         <v>74</v>
       </c>
       <c r="H60" s="65">
         <f>H58*(N46)*(H59)</f>
-        <v>4.3043665776613135E-4</v>
+        <v>6.5201887046119488E-5</v>
       </c>
       <c r="I60" s="64" t="s">
         <v>74</v>
@@ -6265,27 +6280,15 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="G49:G51"/>
-    <mergeCell ref="H49:H51"/>
-    <mergeCell ref="H46:H48"/>
-    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="B60:F60"/>
     <mergeCell ref="O46:O51"/>
     <mergeCell ref="P46:P51"/>
     <mergeCell ref="K1:O1"/>
@@ -6302,16 +6305,28 @@
     <mergeCell ref="K50:K51"/>
     <mergeCell ref="L50:L51"/>
     <mergeCell ref="I45:J45"/>
+    <mergeCell ref="G46:G48"/>
+    <mergeCell ref="G49:G51"/>
+    <mergeCell ref="H49:H51"/>
+    <mergeCell ref="H46:H48"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I37:J37"/>
     <mergeCell ref="D44:E44"/>
-    <mergeCell ref="C59:F59"/>
-    <mergeCell ref="C58:F58"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="B60:F60"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -6323,7 +6338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A25DEB-25D5-484C-93A1-F33B72048DB6}">
   <dimension ref="B2:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
@@ -6356,25 +6371,25 @@
       </c>
     </row>
     <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L6" s="147" t="s">
+      <c r="L6" s="154" t="s">
         <v>67</v>
       </c>
-      <c r="M6" s="147"/>
+      <c r="M6" s="154"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="L7" s="147"/>
-      <c r="M7" s="147"/>
+      <c r="L7" s="154"/>
+      <c r="M7" s="154"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="L8" s="147"/>
-      <c r="M8" s="147"/>
+      <c r="L8" s="154"/>
+      <c r="M8" s="154"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="I10" s="146" t="s">
+      <c r="I10" s="153" t="s">
         <v>64</v>
       </c>
-      <c r="J10" s="146"/>
-      <c r="K10" s="146"/>
+      <c r="J10" s="153"/>
+      <c r="K10" s="153"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
@@ -6392,18 +6407,18 @@
       </c>
     </row>
     <row r="19" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E19" s="146" t="s">
+      <c r="E19" s="153" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
+      <c r="F19" s="153"/>
+      <c r="G19" s="153"/>
     </row>
     <row r="20" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E20" s="146" t="s">
+      <c r="E20" s="153" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="146"/>
-      <c r="G20" s="146"/>
+      <c r="F20" s="153"/>
+      <c r="G20" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6421,28 +6436,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E871CC9C-1361-4787-8816-44BE209CED79}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="152" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
+      <c r="A1" s="157" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="157"/>
+      <c r="C1" s="157"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
@@ -6467,13 +6481,13 @@
       <c r="M2" s="17"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="155" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
+      <c r="B3" s="155"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
@@ -6604,22 +6618,22 @@
       <c r="M11" s="17"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="158" t="s">
+      <c r="A12" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="158" t="s">
+      <c r="B12" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="158" t="s">
+      <c r="C12" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="158" t="s">
+      <c r="D12" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="159" t="s">
+      <c r="E12" s="156" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="159"/>
+      <c r="F12" s="156"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
@@ -6636,17 +6650,17 @@
         <v>0</v>
       </c>
       <c r="C13" s="19">
-        <v>0</v>
-      </c>
-      <c r="D13" s="19">
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="E13" s="154">
+        <v>1</v>
+      </c>
+      <c r="D13" s="85">
+        <v>0.3</v>
+      </c>
+      <c r="E13" s="85">
         <f>POWER((C13-D13), 2)</f>
-        <v>0.16483600000000001</v>
+        <v>0.48999999999999994</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
@@ -6664,17 +6678,17 @@
         <v>1</v>
       </c>
       <c r="C14" s="19">
-        <v>1</v>
-      </c>
-      <c r="D14" s="19">
-        <v>0.432</v>
-      </c>
-      <c r="E14" s="154">
+        <v>0</v>
+      </c>
+      <c r="D14" s="85">
+        <v>0.02</v>
+      </c>
+      <c r="E14" s="158">
         <f t="shared" ref="E14:E16" si="0">POWER((C14-D14), 2)</f>
-        <v>0.32262400000000008</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
@@ -6694,15 +6708,15 @@
       <c r="C15" s="19">
         <v>1</v>
       </c>
-      <c r="D15" s="19">
-        <v>0.437</v>
-      </c>
-      <c r="E15" s="154">
+      <c r="D15" s="85">
+        <v>0.89</v>
+      </c>
+      <c r="E15" s="85">
         <f t="shared" si="0"/>
-        <v>0.31696899999999995</v>
+        <v>1.2099999999999998E-2</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
@@ -6722,15 +6736,15 @@
       <c r="C16" s="19">
         <v>0</v>
       </c>
-      <c r="D16" s="19">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="E16" s="154">
+      <c r="D16" s="85">
+        <v>0.32</v>
+      </c>
+      <c r="E16" s="85">
         <f t="shared" si="0"/>
-        <v>0.20976400000000001</v>
+        <v>0.1024</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
@@ -6762,9 +6776,9 @@
       <c r="D18" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="155">
+      <c r="E18" s="159">
         <f>SUM(E13:E16)</f>
-        <v>1.0141930000000001</v>
+        <v>0.60489999999999999</v>
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
@@ -6779,12 +6793,12 @@
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
-      <c r="D19" s="148">
+      <c r="D19" s="82">
         <v>1</v>
       </c>
-      <c r="E19" s="150">
+      <c r="E19" s="160">
         <f>E18</f>
-        <v>1.0141930000000001</v>
+        <v>0.60489999999999999</v>
       </c>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
@@ -6799,10 +6813,10 @@
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
-      <c r="D20" s="149" t="s">
+      <c r="D20" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="151"/>
+      <c r="E20" s="84"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
@@ -6834,18 +6848,18 @@
       <c r="D22" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="157">
+      <c r="E22" s="161">
         <f>(D19*E18)/4</f>
-        <v>0.25354825000000003</v>
+        <v>0.151225</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
-      <c r="H22" s="156" t="s">
-        <v>84</v>
-      </c>
-      <c r="I22" s="157">
+      <c r="H22" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="I22" s="87">
         <f>SQRT(E22)</f>
-        <v>0.50353574848266736</v>
+        <v>0.38887658710701523</v>
       </c>
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
